--- a/config_5.11/game_activity_config.xlsx
+++ b/config_5.11/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="151">
   <si>
     <t>line|行号</t>
   </si>
@@ -579,9 +579,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -624,6 +624,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -631,40 +646,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,8 +672,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -698,9 +695,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,9 +749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,46 +765,11 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -810,31 +810,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,13 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,73 +960,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,32 +1013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1063,11 +1037,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,15 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1110,6 +1092,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1118,10 +1118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,137 +1130,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1693,7 +1693,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3800,7 +3800,6 @@
       <c r="D47" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="6"/>
       <c r="F47" s="6">
         <v>3</v>
       </c>
@@ -3851,6 +3850,9 @@
       <c r="G48" s="6">
         <v>1</v>
       </c>
+      <c r="H48" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="I48" s="6">
         <v>1620662400</v>
       </c>
@@ -3895,6 +3897,9 @@
       <c r="G49" s="6">
         <v>1</v>
       </c>
+      <c r="H49" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I49" s="6">
         <v>1620662400</v>
       </c>
@@ -3918,7 +3923,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O48">
+  <autoFilter ref="A1:O49">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.11/game_activity_config.xlsx
+++ b/config_5.11/game_activity_config.xlsx
@@ -579,9 +579,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -623,10 +623,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,22 +656,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,14 +685,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,14 +699,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -702,11 +706,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,19 +729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,14 +753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -764,12 +760,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -810,13 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +846,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +876,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,79 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,17 +1013,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1042,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,30 +1102,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1118,10 +1118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,139 +1130,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1689,11 +1692,11 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3718,8 +3721,8 @@
       <c r="H45" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="6">
-        <v>1620662400</v>
+      <c r="I45" s="34">
+        <v>1620691200</v>
       </c>
       <c r="J45" s="6">
         <v>1621267199</v>
@@ -3765,8 +3768,8 @@
       <c r="H46" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="6">
-        <v>1620662400</v>
+      <c r="I46" s="34">
+        <v>1620691200</v>
       </c>
       <c r="J46" s="6">
         <v>1621267199</v>
@@ -3806,8 +3809,8 @@
       <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="6">
-        <v>1620662400</v>
+      <c r="I47" s="34">
+        <v>1620691200</v>
       </c>
       <c r="J47" s="6">
         <v>1621267199</v>
@@ -3853,8 +3856,8 @@
       <c r="H48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="6">
-        <v>1620662400</v>
+      <c r="I48" s="34">
+        <v>1620691200</v>
       </c>
       <c r="J48" s="6">
         <v>1621267199</v>
@@ -3900,8 +3903,8 @@
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="6">
-        <v>1620662400</v>
+      <c r="I49" s="34">
+        <v>1620691200</v>
       </c>
       <c r="J49" s="6">
         <v>1621267199</v>

--- a/config_5.11/game_activity_config.xlsx
+++ b/config_5.11/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
   <si>
     <t>line|行号</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>"act_ty_task","act_hlfl_cjj","panel"</t>
+  </si>
+  <si>
+    <t>byam</t>
+  </si>
+  <si>
+    <t>drt_byam_little_game_discount</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_hlfl_byam","panel"</t>
   </si>
 </sst>
 </file>
@@ -623,8 +632,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -639,74 +747,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -715,46 +762,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,19 +855,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,13 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,43 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,19 +981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,24 +1022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1042,47 +1033,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,8 +1055,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,139 +1139,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1358,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1689,14 +1701,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,7 +1756,7 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1756,7 +1768,7 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -1794,7 +1806,7 @@
       <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2">
@@ -2178,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="32">
+      <c r="I11" s="33">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="33">
         <v>1615219199</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -2268,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="32">
+      <c r="I13" s="33">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="33">
         <v>1613404799</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2315,10 +2327,10 @@
       <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="33">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="33">
         <v>1618243199</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -2362,10 +2374,10 @@
       <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="33">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="33">
         <v>1618243199</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -2409,10 +2421,10 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="33">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="33">
         <v>1615219199</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -2453,10 +2465,10 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="33">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="33">
         <v>1613404799</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -2541,10 +2553,10 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="33">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="33">
         <v>1613404799</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -3260,13 +3272,13 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="33" t="s">
+      <c r="K35" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="34" t="s">
         <v>107</v>
       </c>
       <c r="N35" s="5">
@@ -3307,13 +3319,13 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="33" t="s">
+      <c r="K36" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M36" s="34" t="s">
         <v>110</v>
       </c>
       <c r="N36" s="5">
@@ -3354,13 +3366,13 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="33" t="s">
+      <c r="K37" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="33" t="s">
+      <c r="M37" s="34" t="s">
         <v>113</v>
       </c>
       <c r="N37" s="5">
@@ -3401,13 +3413,13 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="33" t="s">
+      <c r="K38" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="34" t="s">
         <v>116</v>
       </c>
       <c r="N38" s="5">
@@ -3448,7 +3460,7 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -3495,7 +3507,7 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -3539,7 +3551,7 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -3721,7 +3733,7 @@
       <c r="H45" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="35">
         <v>1620691200</v>
       </c>
       <c r="J45" s="6">
@@ -3768,7 +3780,7 @@
       <c r="H46" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="35">
         <v>1620691200</v>
       </c>
       <c r="J46" s="6">
@@ -3809,7 +3821,7 @@
       <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="35">
         <v>1620691200</v>
       </c>
       <c r="J47" s="6">
@@ -3856,7 +3868,7 @@
       <c r="H48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="35">
         <v>1620691200</v>
       </c>
       <c r="J48" s="6">
@@ -3895,7 +3907,7 @@
         <v>68</v>
       </c>
       <c r="F49" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49" s="6">
         <v>1</v>
@@ -3903,7 +3915,7 @@
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="35">
         <v>1620691200</v>
       </c>
       <c r="J49" s="6">
@@ -3925,8 +3937,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="50" ht="14.25" spans="1:15">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="8">
+        <v>48</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="35">
+        <v>1620691200</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1621267199</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O49">
+  <autoFilter ref="A1:O50">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.11/game_activity_config.xlsx
+++ b/config_5.11/game_activity_config.xlsx
@@ -547,7 +547,7 @@
     <t>五一福利</t>
   </si>
   <si>
-    <t>欢乐达人</t>
+    <t>游戏达人</t>
   </si>
   <si>
     <t>actp_rank_hljnh_015_yxdr_rank</t>
@@ -588,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -632,6 +632,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -639,8 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,11 +678,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,7 +752,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -687,29 +760,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,62 +774,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -819,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +903,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -909,7 +927,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,79 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1037,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1070,6 +1096,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1084,41 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,139 +1139,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1358,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1704,11 +1707,11 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,7 +1759,7 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1768,7 +1771,7 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -1806,7 +1809,7 @@
       <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2">
@@ -2190,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="34">
         <v>1615219199</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -2280,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="34">
         <v>1613404799</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2327,10 +2330,10 @@
       <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="34">
         <v>1618243199</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -2374,10 +2377,10 @@
       <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="34">
         <v>1618243199</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -2421,10 +2424,10 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="34">
         <v>1615219199</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -2465,10 +2468,10 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="34">
         <v>1613404799</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -2553,10 +2556,10 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="34">
         <v>1613404799</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -3272,13 +3275,13 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="34" t="s">
+      <c r="K35" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="35" t="s">
         <v>107</v>
       </c>
       <c r="N35" s="5">
@@ -3319,13 +3322,13 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="34" t="s">
+      <c r="K36" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M36" s="35" t="s">
         <v>110</v>
       </c>
       <c r="N36" s="5">
@@ -3366,13 +3369,13 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="34" t="s">
+      <c r="K37" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="M37" s="35" t="s">
         <v>113</v>
       </c>
       <c r="N37" s="5">
@@ -3413,13 +3416,13 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="34" t="s">
+      <c r="K38" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M38" s="34" t="s">
+      <c r="M38" s="35" t="s">
         <v>116</v>
       </c>
       <c r="N38" s="5">
@@ -3460,7 +3463,7 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -3507,7 +3510,7 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -3551,7 +3554,7 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -3733,7 +3736,7 @@
       <c r="H45" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="36">
         <v>1620691200</v>
       </c>
       <c r="J45" s="6">
@@ -3780,7 +3783,7 @@
       <c r="H46" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="36">
         <v>1620691200</v>
       </c>
       <c r="J46" s="6">
@@ -3821,7 +3824,7 @@
       <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="36">
         <v>1620691200</v>
       </c>
       <c r="J47" s="6">
@@ -3865,10 +3868,10 @@
       <c r="G48" s="6">
         <v>1</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="35">
+      <c r="H48" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="36">
         <v>1620691200</v>
       </c>
       <c r="J48" s="6">
@@ -3915,7 +3918,7 @@
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="36">
         <v>1620691200</v>
       </c>
       <c r="J49" s="6">
@@ -3959,10 +3962,10 @@
       <c r="G50" s="6">
         <v>1</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="36">
         <v>1620691200</v>
       </c>
       <c r="J50" s="6">
